--- a/data/Fakespeak-ENG/Analysis_output/social_media/Fakespeak_social_media_named_entities_frequency_headlines.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/social_media/Fakespeak_social_media_named_entities_frequency_headlines.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Entity</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
   <si>
     <t>Wikidata_id</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +410,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/Fakespeak-ENG/Analysis_output/social_media/Fakespeak_social_media_named_entities_frequency_headlines.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/social_media/Fakespeak_social_media_named_entities_frequency_headlines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Entity</t>
   </si>
@@ -32,13 +32,25 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q658</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +65,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,16 +106,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,7 +440,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>658</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>